--- a/Cv_parser/Cv_parser_output.xlsx
+++ b/Cv_parser/Cv_parser_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>extension</t>
   </si>
@@ -37,54 +37,18 @@
     <t>addresses</t>
   </si>
   <si>
-    <t>c\.?ainstitute</t>
-  </si>
-  <si>
-    <t>c\.?ayear</t>
-  </si>
-  <si>
-    <t>c\.?aline</t>
-  </si>
-  <si>
-    <t>icwainstitute</t>
-  </si>
-  <si>
-    <t>icwayear</t>
-  </si>
-  <si>
-    <t>icwaline</t>
-  </si>
-  <si>
-    <t>b\.?cominstitute</t>
-  </si>
-  <si>
-    <t>b\.?comyear</t>
-  </si>
-  <si>
-    <t>b\.?comline</t>
-  </si>
-  <si>
-    <t>m\.?cominstitute</t>
-  </si>
-  <si>
-    <t>m\.?comyear</t>
-  </si>
-  <si>
-    <t>mbainstitute</t>
-  </si>
-  <si>
-    <t>mbayear</t>
-  </si>
-  <si>
-    <t>mbaline</t>
-  </si>
-  <si>
-    <t>degree</t>
+    <t>educations</t>
+  </si>
+  <si>
+    <t>educations_year</t>
   </si>
   <si>
     <t>softskill</t>
   </si>
   <si>
+    <t>technicalskill</t>
+  </si>
+  <si>
     <t>work_experience</t>
   </si>
   <si>
@@ -94,49 +58,70 @@
     <t>docx</t>
   </si>
   <si>
-    <t>resumes\ca-manoj-k-jain.docx</t>
-  </si>
-  <si>
-    <t>Manoj K Jain</t>
-  </si>
-  <si>
-    <t>manojkjain65@gmail.com</t>
-  </si>
-  <si>
-    <t>91 9303270882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">			13th June 1965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		7, Radha Krishna Vihar, Pipliyahana, Indore </t>
-  </si>
-  <si>
-    <t>I.C.A.I</t>
-  </si>
-  <si>
-    <t>SURFACE INVESTMENTS PVT LTD ZIMBABWE Since 18-11-2012 Joined as CFO .</t>
-  </si>
-  <si>
-    <t>Chartered Accountant with nearly 24 years Post Qualification experience in Audit , Taxation , Accounting , Finance , System Design , &amp; Management Consultancy</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>M K J</t>
-  </si>
-  <si>
-    <t>M K J &amp; Company , Indore- Since March 90 till 17-11-2012 ( Own Chartered Accountant Firm engaged in Audit , Finance , System Design and Taxation for number of Corporate and Non-Corporate Clients )</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>mba</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>resumes\neeraj-goel.docx</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>negr321@gmail.com</t>
+  </si>
+  <si>
+    <t>91-124 4227884</t>
+  </si>
+  <si>
+    <t>9811013037</t>
+  </si>
+  <si>
+    <t>9313304627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		            15 jan 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			Villa No. 18, Orchid Petals, Sohna Road, Sector 49, Gurgaon, </t>
+  </si>
+  <si>
+    <t>MBA-Finance</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>July 2012 ~ present	MNAUM International Private Limited, Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Own    Venture)</t>
+  </si>
+  <si>
+    <t>Oct 1998 ~ Jan 2012	LG Group in India (USD $120 Billion Conglomerate    having World Head Quarter in South Korea)</t>
+  </si>
+  <si>
+    <t>Mar 2004 ~ Jan 2011	Worked as “CFO &amp; Head HR” for LG Life Sciences India    Private Limited, a Pharmaceuticals company</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The company is into trading business having products under bio-technology and Export of services</t>
+  </si>
+  <si>
+    <t>Oct 1998 ~ Feb 2004	Worked as “Financial Controller” with LG Electronics India Private Limited having consumer durables Division and Telecommunication Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The company is having 2 manufacturing plants, Trading business, revenue from Services and more than 6000 manpower</t>
+  </si>
+  <si>
+    <t>Apr 1996 ~ Oct 1998		 Hi-Tech Detergents Limited, a manufacturing plant for HLL</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -494,172 +479,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="5" spans="1:13">
+      <c r="L5" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="6" spans="1:13">
+      <c r="L6" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="8" spans="1:13">
+      <c r="L8" t="s">
         <v>32</v>
       </c>
-      <c r="J2">
-        <v>2012</v>
-      </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="9" spans="1:13">
+      <c r="L9" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2">
-        <v>2012</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="11" spans="1:13">
+      <c r="L11" t="s">
         <v>34</v>
-      </c>
-      <c r="V3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Cv_parser/Cv_parser_output.xlsx
+++ b/Cv_parser/Cv_parser_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>extension</t>
   </si>
@@ -43,6 +43,9 @@
     <t>educations_year</t>
   </si>
   <si>
+    <t>educations_name</t>
+  </si>
+  <si>
     <t>softskill</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>work_experience</t>
   </si>
   <si>
+    <t>work_experience_year</t>
+  </si>
+  <si>
     <t>experience</t>
   </si>
   <si>
@@ -61,19 +67,13 @@
     <t>resumes\neeraj-goel.docx</t>
   </si>
   <si>
-    <t>Jan</t>
+    <t xml:space="preserve">neeraj </t>
   </si>
   <si>
     <t>negr321@gmail.com</t>
   </si>
   <si>
-    <t>91-124 4227884</t>
-  </si>
-  <si>
-    <t>9811013037</t>
-  </si>
-  <si>
-    <t>9313304627</t>
+    <t>91-124 4227884,9811013037,9313304627,</t>
   </si>
   <si>
     <t xml:space="preserve">		            15 jan 2018</t>
@@ -82,43 +82,109 @@
     <t xml:space="preserve">			Villa No. 18, Orchid Petals, Sohna Road, Sector 49, Gurgaon, </t>
   </si>
   <si>
+    <t>ICWA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
     <t>MBA-Finance</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
     <t>1995</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>July 2012 ~ present	MNAUM International Private Limited, Delhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (Own    Venture)</t>
-  </si>
-  <si>
-    <t>Oct 1998 ~ Jan 2012	LG Group in India (USD $120 Billion Conglomerate    having World Head Quarter in South Korea)</t>
-  </si>
-  <si>
-    <t>Mar 2004 ~ Jan 2011	Worked as “CFO &amp; Head HR” for LG Life Sciences India    Private Limited, a Pharmaceuticals company</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The company is into trading business having products under bio-technology and Export of services</t>
-  </si>
-  <si>
-    <t>Oct 1998 ~ Feb 2004	Worked as “Financial Controller” with LG Electronics India Private Limited having consumer durables Division and Telecommunication Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The company is having 2 manufacturing plants, Trading business, revenue from Services and more than 6000 manpower</t>
-  </si>
-  <si>
-    <t>Apr 1996 ~ Oct 1998		 Hi-Tech Detergents Limited, a manufacturing plant for HLL</t>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>ICWA Institute of Cost</t>
+  </si>
+  <si>
+    <t>A US MNC</t>
+  </si>
+  <si>
+    <t>Comprehensive</t>
+  </si>
+  <si>
+    <t>Crisis management</t>
+  </si>
+  <si>
+    <t>Budgeting</t>
+  </si>
+  <si>
+    <t>Corporate restructuring</t>
+  </si>
+  <si>
+    <t>Trading business</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>Trading</t>
+  </si>
+  <si>
+    <t>Strategic alliances</t>
+  </si>
+  <si>
+    <t>Business development</t>
+  </si>
+  <si>
+    <t>It services</t>
+  </si>
+  <si>
+    <t>July 2012 ~ present</t>
+  </si>
+  <si>
+    <t>Jan 2011 ~June 2012</t>
+  </si>
+  <si>
+    <t>Oct 1998 ~ Jan 2012</t>
+  </si>
+  <si>
+    <t>Mar 2004 ~ Jan 2011</t>
+  </si>
+  <si>
+    <t>Oct 1998 ~ Feb 2004</t>
+  </si>
+  <si>
+    <t>Apr 1996 ~ Oct 1998</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>91 to Mar 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mittal &amp; Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chartered Ac</t>
+  </si>
+  <si>
+    <t>MNAUM International Priva</t>
+  </si>
+  <si>
+    <t>Eaton Group, A US MNC (I</t>
+  </si>
+  <si>
+    <t>LG Group in India (USD $</t>
+  </si>
+  <si>
+    <t>Worked as “CFO &amp; Head HR”</t>
+  </si>
+  <si>
+    <t>Worked as “Financial Con</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hi-Tech Detergents Lim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M</t>
   </si>
   <si>
     <t>23</t>
@@ -479,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,22 +591,28 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -552,63 +624,127 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="L6" t="s">
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="L8" t="s">
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="L9" t="s">
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="K5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="L11" t="s">
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="K6" t="s">
         <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="M11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
